--- a/Code/Results/Cases/Case_3_183/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_183/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.610820783631539</v>
+        <v>1.213056729844538</v>
       </c>
       <c r="C2">
-        <v>0.9817683005625781</v>
+        <v>0.3228198103155648</v>
       </c>
       <c r="D2">
-        <v>0.05305406814101588</v>
+        <v>0.01941460295053332</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.3590120390221827</v>
+        <v>0.430388737815619</v>
       </c>
       <c r="G2">
-        <v>0.2567052327945447</v>
+        <v>0.2777800091919644</v>
       </c>
       <c r="H2">
-        <v>0.1857241818123825</v>
+        <v>0.4417816666615906</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.136121207168912</v>
+        <v>1.065510157487665</v>
       </c>
       <c r="C3">
-        <v>0.8597087726790562</v>
+        <v>0.2833549914221578</v>
       </c>
       <c r="D3">
-        <v>0.04713057442496904</v>
+        <v>0.01736633054169801</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.3284776031217689</v>
+        <v>0.4328886863516956</v>
       </c>
       <c r="G3">
-        <v>0.2332206408855129</v>
+        <v>0.2810209571142295</v>
       </c>
       <c r="H3">
-        <v>0.1853850848261303</v>
+        <v>0.4500004064366578</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.845797852533394</v>
+        <v>0.9747452631027613</v>
       </c>
       <c r="C4">
-        <v>0.7849424455798157</v>
+        <v>0.259017211634017</v>
       </c>
       <c r="D4">
-        <v>0.04351959038130815</v>
+        <v>0.01610683451141171</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.3118613711615978</v>
+        <v>0.4350970362268711</v>
       </c>
       <c r="G4">
-        <v>0.2210160927700571</v>
+        <v>0.2836156918042221</v>
       </c>
       <c r="H4">
-        <v>0.1864442680548208</v>
+        <v>0.4555491057942831</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.727705421818143</v>
+        <v>0.9377162116397812</v>
       </c>
       <c r="C5">
-        <v>0.7545033854584346</v>
+        <v>0.2490731027117192</v>
       </c>
       <c r="D5">
-        <v>0.0420535765574428</v>
+        <v>0.01559314843509441</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.3055842680399081</v>
+        <v>0.4361652221734147</v>
       </c>
       <c r="G5">
-        <v>0.2165541949359735</v>
+        <v>0.2848238556574429</v>
       </c>
       <c r="H5">
-        <v>0.1871737524216641</v>
+        <v>0.4579360904076637</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.708107377472857</v>
+        <v>0.9315650912813567</v>
       </c>
       <c r="C6">
-        <v>0.7494502970936878</v>
+        <v>0.2474203178887819</v>
       </c>
       <c r="D6">
-        <v>0.04181044854531279</v>
+        <v>0.01550782621929869</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.3045706284991851</v>
+        <v>0.4363527253908401</v>
       </c>
       <c r="G6">
-        <v>0.2158429234488608</v>
+        <v>0.2850335398112023</v>
       </c>
       <c r="H6">
-        <v>0.1873122888725547</v>
+        <v>0.4583400340787236</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.844204429300248</v>
+        <v>0.9742460431247082</v>
       </c>
       <c r="C7">
-        <v>0.7845318374251633</v>
+        <v>0.2588832076546908</v>
       </c>
       <c r="D7">
-        <v>0.04349979830502804</v>
+        <v>0.01609990846147724</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.3117747686976102</v>
+        <v>0.4351107622628376</v>
       </c>
       <c r="G7">
-        <v>0.2209539047226343</v>
+        <v>0.2836313766978051</v>
       </c>
       <c r="H7">
-        <v>0.1864529266752228</v>
+        <v>0.4555807886008481</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.446862347389356</v>
+        <v>1.162218828581103</v>
       </c>
       <c r="C8">
-        <v>0.9396349411519509</v>
+        <v>0.3092346387274176</v>
       </c>
       <c r="D8">
-        <v>0.05100556510656418</v>
+        <v>0.0187087614711885</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.3480151379367058</v>
+        <v>0.4311103241399579</v>
       </c>
       <c r="G8">
-        <v>0.2481197095509913</v>
+        <v>0.2787711914752933</v>
       </c>
       <c r="H8">
-        <v>0.1853312423802009</v>
+        <v>0.4445109365135664</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.641297374829492</v>
+        <v>1.529440664866854</v>
       </c>
       <c r="C9">
-        <v>1.246020546772911</v>
+        <v>0.4071164138300674</v>
       </c>
       <c r="D9">
-        <v>0.06598522961048303</v>
+        <v>0.02380887256085629</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.438041940922389</v>
+        <v>0.4286565667544195</v>
       </c>
       <c r="G9">
-        <v>0.3211802453521102</v>
+        <v>0.2740971149103473</v>
       </c>
       <c r="H9">
-        <v>0.194201845962283</v>
+        <v>0.4268103748463687</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.532035969557683</v>
+        <v>1.79836787514472</v>
       </c>
       <c r="C10">
-        <v>1.473744482754682</v>
+        <v>0.4784957298887775</v>
       </c>
       <c r="D10">
-        <v>0.07723509362481451</v>
+        <v>0.02754513163202432</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.5188380727693982</v>
+        <v>0.4302076403426653</v>
       </c>
       <c r="G10">
-        <v>0.3902762326818845</v>
+        <v>0.2737042005166188</v>
       </c>
       <c r="H10">
-        <v>0.2090047731573037</v>
+        <v>0.4162781369516324</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.941491879751027</v>
+        <v>1.920518466643898</v>
       </c>
       <c r="C11">
-        <v>1.578229069996098</v>
+        <v>0.5108501053937289</v>
       </c>
       <c r="D11">
-        <v>0.08242784616179932</v>
+        <v>0.02924231419535062</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.5595428847962651</v>
+        <v>0.431656005885003</v>
       </c>
       <c r="G11">
-        <v>0.4258901411457146</v>
+        <v>0.2742030514762632</v>
       </c>
       <c r="H11">
-        <v>0.2179197090284362</v>
+        <v>0.4120299100306255</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.097280444487865</v>
+        <v>1.96674624670851</v>
       </c>
       <c r="C12">
-        <v>1.617952244220703</v>
+        <v>0.5230848207709187</v>
       </c>
       <c r="D12">
-        <v>0.08440707033039985</v>
+        <v>0.02988461615090898</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.5755962460754205</v>
+        <v>0.4323124325517824</v>
       </c>
       <c r="G12">
-        <v>0.4400552979431609</v>
+        <v>0.2744907836870425</v>
       </c>
       <c r="H12">
-        <v>0.2216448795695669</v>
+        <v>0.4104998135478723</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.063693706855531</v>
+        <v>1.956791532486648</v>
       </c>
       <c r="C13">
-        <v>1.609389666003267</v>
+        <v>0.5204506271037985</v>
       </c>
       <c r="D13">
-        <v>0.08398020279841489</v>
+        <v>0.02974630249445198</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.5721092186962693</v>
+        <v>0.4321662393469836</v>
       </c>
       <c r="G13">
-        <v>0.4369730589884568</v>
+        <v>0.2744243978458485</v>
       </c>
       <c r="H13">
-        <v>0.2208264554079307</v>
+        <v>0.4108258421714481</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.954293177070724</v>
+        <v>1.924322222300134</v>
       </c>
       <c r="C14">
-        <v>1.581493793744301</v>
+        <v>0.5118570096828421</v>
       </c>
       <c r="D14">
-        <v>0.082590408222039</v>
+        <v>0.02929516463519377</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.5608503567159033</v>
+        <v>0.4317078401858296</v>
       </c>
       <c r="G14">
-        <v>0.4270414366865083</v>
+        <v>0.2742247347462268</v>
       </c>
       <c r="H14">
-        <v>0.2182189634845315</v>
+        <v>0.4119024494152086</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.887382031860341</v>
+        <v>1.904430148518429</v>
       </c>
       <c r="C15">
-        <v>1.564428139737913</v>
+        <v>0.5065909200399119</v>
       </c>
       <c r="D15">
-        <v>0.08174085587267399</v>
+        <v>0.02901877874589331</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.554039479548635</v>
+        <v>0.4314411514865171</v>
       </c>
       <c r="G15">
-        <v>0.4210488905564915</v>
+        <v>0.2741153469670081</v>
       </c>
       <c r="H15">
-        <v>0.2166684072030733</v>
+        <v>0.4125721564648046</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.50537304153039</v>
+        <v>1.790381198118268</v>
       </c>
       <c r="C16">
-        <v>1.466936514490271</v>
+        <v>0.4763789144324164</v>
       </c>
       <c r="D16">
-        <v>0.07689741563193309</v>
+        <v>0.02743416462142534</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.5162633371558982</v>
+        <v>0.4301280312677136</v>
       </c>
       <c r="G16">
-        <v>0.3880393821897457</v>
+        <v>0.2736853532468899</v>
       </c>
       <c r="H16">
-        <v>0.2084690131997036</v>
+        <v>0.4165667401346838</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.272197302931261</v>
+        <v>1.720367359308625</v>
       </c>
       <c r="C17">
-        <v>1.407376576953311</v>
+        <v>0.4578146885784804</v>
       </c>
       <c r="D17">
-        <v>0.0739467407047627</v>
+        <v>0.02646140297542132</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.494149141857072</v>
+        <v>0.4295135368886136</v>
       </c>
       <c r="G17">
-        <v>0.3689129356459802</v>
+        <v>0.2735961034271526</v>
       </c>
       <c r="H17">
-        <v>0.204021793658427</v>
+        <v>0.4191567325595287</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.138473037756171</v>
+        <v>1.680079842492546</v>
       </c>
       <c r="C18">
-        <v>1.373201315474546</v>
+        <v>0.4471261033194196</v>
       </c>
       <c r="D18">
-        <v>0.07225652687186823</v>
+        <v>0.02590166636442603</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.4817967845660363</v>
+        <v>0.429229940611819</v>
       </c>
       <c r="G18">
-        <v>0.3583004285454194</v>
+        <v>0.273608464108321</v>
       </c>
       <c r="H18">
-        <v>0.2016668181056787</v>
+        <v>0.4206974995174591</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.093260076584386</v>
+        <v>1.666436231437274</v>
       </c>
       <c r="C19">
-        <v>1.361643418836593</v>
+        <v>0.4435052677839053</v>
       </c>
       <c r="D19">
-        <v>0.07168538260670232</v>
+        <v>0.02571211063713008</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.4776754895173312</v>
+        <v>0.4291458805542732</v>
       </c>
       <c r="G19">
-        <v>0.3547717075486929</v>
+        <v>0.2736235464545302</v>
       </c>
       <c r="H19">
-        <v>0.200903292789647</v>
+        <v>0.4212279319078078</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.29697779927352</v>
+        <v>1.727822263141434</v>
       </c>
       <c r="C20">
-        <v>1.413708143746589</v>
+        <v>0.4597920169316012</v>
       </c>
       <c r="D20">
-        <v>0.07426011320452375</v>
+        <v>0.026564979126114</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.4964647442871168</v>
+        <v>0.4295717138565607</v>
       </c>
       <c r="G20">
-        <v>0.370908231346732</v>
+        <v>0.2735990019647545</v>
       </c>
       <c r="H20">
-        <v>0.2044739568424774</v>
+        <v>0.4188757337847733</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.986405717060848</v>
+        <v>1.933860015709854</v>
       </c>
       <c r="C21">
-        <v>1.58968297744326</v>
+        <v>0.5143816332765709</v>
       </c>
       <c r="D21">
-        <v>0.0829982586125908</v>
+        <v>0.02942768542513363</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.5641394013354315</v>
+        <v>0.4318395438949452</v>
       </c>
       <c r="G21">
-        <v>0.4299395098202723</v>
+        <v>0.274280687383154</v>
       </c>
       <c r="H21">
-        <v>0.2189750650825317</v>
+        <v>0.4115840858751483</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.441347205100897</v>
+        <v>2.068353832317882</v>
       </c>
       <c r="C22">
-        <v>1.705624297019142</v>
+        <v>0.5499587420608805</v>
       </c>
       <c r="D22">
-        <v>0.08878511878664597</v>
+        <v>0.03129637649145423</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.6121337899592305</v>
+        <v>0.4339515215159366</v>
       </c>
       <c r="G22">
-        <v>0.4725193149839413</v>
+        <v>0.2753028998018721</v>
       </c>
       <c r="H22">
-        <v>0.2305075636768237</v>
+        <v>0.4072770512113806</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.198092676560009</v>
+        <v>1.996587351909056</v>
       </c>
       <c r="C23">
-        <v>1.643648612810637</v>
+        <v>0.5309798956201348</v>
       </c>
       <c r="D23">
-        <v>0.08568887227058042</v>
+        <v>0.03029923680481517</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.5861482504413615</v>
+        <v>0.4327663103649755</v>
       </c>
       <c r="G23">
-        <v>0.4493999109443649</v>
+        <v>0.2747040988571285</v>
       </c>
       <c r="H23">
-        <v>0.2241516237389902</v>
+        <v>0.4095336670924468</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.28577351336429</v>
+        <v>1.724452012012534</v>
       </c>
       <c r="C24">
-        <v>1.410845437286071</v>
+        <v>0.4588981158648267</v>
       </c>
       <c r="D24">
-        <v>0.07411841843497768</v>
+        <v>0.02651815385038958</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.4954167400831508</v>
+        <v>0.4295451950711424</v>
       </c>
       <c r="G24">
-        <v>0.3700049692793783</v>
+        <v>0.2735974933082588</v>
       </c>
       <c r="H24">
-        <v>0.2042689079844564</v>
+        <v>0.4190026121808046</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.316283829744862</v>
+        <v>1.43024888320673</v>
       </c>
       <c r="C25">
-        <v>1.162773509055</v>
+        <v>0.3807298380316411</v>
       </c>
       <c r="D25">
-        <v>0.0618966750786214</v>
+        <v>0.02243097516476666</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.4113546290937506</v>
+        <v>0.4287362588925561</v>
       </c>
       <c r="G25">
-        <v>0.2989688359933922</v>
+        <v>0.2748333215114087</v>
       </c>
       <c r="H25">
-        <v>0.1904666850469141</v>
+        <v>0.4311667942157271</v>
       </c>
       <c r="I25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_183/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_183/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.213056729844538</v>
+        <v>3.610820783631425</v>
       </c>
       <c r="C2">
-        <v>0.3228198103155648</v>
+        <v>0.9817683005628055</v>
       </c>
       <c r="D2">
-        <v>0.01941460295053332</v>
+        <v>0.05305406814116509</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.430388737815619</v>
+        <v>0.3590120390221827</v>
       </c>
       <c r="G2">
-        <v>0.2777800091919644</v>
+        <v>0.2567052327946087</v>
       </c>
       <c r="H2">
-        <v>0.4417816666615906</v>
+        <v>0.1857241818123825</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.065510157487665</v>
+        <v>3.136121207168969</v>
       </c>
       <c r="C3">
-        <v>0.2833549914221578</v>
+        <v>0.8597087726789994</v>
       </c>
       <c r="D3">
-        <v>0.01736633054169801</v>
+        <v>0.04713057442494062</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.4328886863516956</v>
+        <v>0.3284776031217689</v>
       </c>
       <c r="G3">
-        <v>0.2810209571142295</v>
+        <v>0.2332206408855058</v>
       </c>
       <c r="H3">
-        <v>0.4500004064366578</v>
+        <v>0.1853850848262439</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9747452631027613</v>
+        <v>2.845797852533394</v>
       </c>
       <c r="C4">
-        <v>0.259017211634017</v>
+        <v>0.7849424455798442</v>
       </c>
       <c r="D4">
-        <v>0.01610683451141171</v>
+        <v>0.04351959038142894</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.4350970362268711</v>
+        <v>0.3118613711616121</v>
       </c>
       <c r="G4">
-        <v>0.2836156918042221</v>
+        <v>0.2210160927700073</v>
       </c>
       <c r="H4">
-        <v>0.4555491057942831</v>
+        <v>0.1864442680548493</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.9377162116397812</v>
+        <v>2.727705421818143</v>
       </c>
       <c r="C5">
-        <v>0.2490731027117192</v>
+        <v>0.7545033854586904</v>
       </c>
       <c r="D5">
-        <v>0.01559314843509441</v>
+        <v>0.04205357655732911</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.4361652221734147</v>
+        <v>0.305584268039901</v>
       </c>
       <c r="G5">
-        <v>0.2848238556574429</v>
+        <v>0.2165541949360303</v>
       </c>
       <c r="H5">
-        <v>0.4579360904076637</v>
+        <v>0.1871737524216641</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.9315650912813567</v>
+        <v>2.708107377472572</v>
       </c>
       <c r="C6">
-        <v>0.2474203178887819</v>
+        <v>0.7494502970935457</v>
       </c>
       <c r="D6">
-        <v>0.01550782621929869</v>
+        <v>0.0418104485453199</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.4363527253908401</v>
+        <v>0.3045706284991851</v>
       </c>
       <c r="G6">
-        <v>0.2850335398112023</v>
+        <v>0.2158429234489176</v>
       </c>
       <c r="H6">
-        <v>0.4583400340787236</v>
+        <v>0.1873122888724339</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.9742460431247082</v>
+        <v>2.844204429300248</v>
       </c>
       <c r="C7">
-        <v>0.2588832076546908</v>
+        <v>0.7845318374249359</v>
       </c>
       <c r="D7">
-        <v>0.01609990846147724</v>
+        <v>0.04349979830490724</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.4351107622628376</v>
+        <v>0.3117747686976315</v>
       </c>
       <c r="G7">
-        <v>0.2836313766978051</v>
+        <v>0.2209539047225206</v>
       </c>
       <c r="H7">
-        <v>0.4555807886008481</v>
+        <v>0.1864529266753294</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.162218828581103</v>
+        <v>3.446862347389242</v>
       </c>
       <c r="C8">
-        <v>0.3092346387274176</v>
+        <v>0.9396349411521498</v>
       </c>
       <c r="D8">
-        <v>0.0187087614711885</v>
+        <v>0.05100556510664234</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.4311103241399579</v>
+        <v>0.3480151379367058</v>
       </c>
       <c r="G8">
-        <v>0.2787711914752933</v>
+        <v>0.248119709551105</v>
       </c>
       <c r="H8">
-        <v>0.4445109365135664</v>
+        <v>0.1853312423803146</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.529440664866854</v>
+        <v>4.641297374829264</v>
       </c>
       <c r="C9">
-        <v>0.4071164138300674</v>
+        <v>1.246020546772741</v>
       </c>
       <c r="D9">
-        <v>0.02380887256085629</v>
+        <v>0.06598522961042619</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.4286565667544195</v>
+        <v>0.4380419409223748</v>
       </c>
       <c r="G9">
-        <v>0.2740971149103473</v>
+        <v>0.321180245352096</v>
       </c>
       <c r="H9">
-        <v>0.4268103748463687</v>
+        <v>0.1942018459622687</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.79836787514472</v>
+        <v>5.532035969557739</v>
       </c>
       <c r="C10">
-        <v>0.4784957298887775</v>
+        <v>1.473744482754398</v>
       </c>
       <c r="D10">
-        <v>0.02754513163202432</v>
+        <v>0.07723509362465109</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.4302076403426653</v>
+        <v>0.5188380727693982</v>
       </c>
       <c r="G10">
-        <v>0.2737042005166188</v>
+        <v>0.3902762326818561</v>
       </c>
       <c r="H10">
-        <v>0.4162781369516324</v>
+        <v>0.2090047731572895</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.920518466643898</v>
+        <v>5.941491879750913</v>
       </c>
       <c r="C11">
-        <v>0.5108501053937289</v>
+        <v>1.578229069996098</v>
       </c>
       <c r="D11">
-        <v>0.02924231419535062</v>
+        <v>0.08242784616195564</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.431656005885003</v>
+        <v>0.5595428847962509</v>
       </c>
       <c r="G11">
-        <v>0.2742030514762632</v>
+        <v>0.4258901411457003</v>
       </c>
       <c r="H11">
-        <v>0.4120299100306255</v>
+        <v>0.2179197090284362</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.96674624670851</v>
+        <v>6.097280444487978</v>
       </c>
       <c r="C12">
-        <v>0.5230848207709187</v>
+        <v>1.617952244220419</v>
       </c>
       <c r="D12">
-        <v>0.02988461615090898</v>
+        <v>0.08440707033089012</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.4323124325517824</v>
+        <v>0.5755962460754489</v>
       </c>
       <c r="G12">
-        <v>0.2744907836870425</v>
+        <v>0.4400552979430898</v>
       </c>
       <c r="H12">
-        <v>0.4104998135478723</v>
+        <v>0.221644879569439</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.956791532486648</v>
+        <v>6.063693706855872</v>
       </c>
       <c r="C13">
-        <v>0.5204506271037985</v>
+        <v>1.609389666003267</v>
       </c>
       <c r="D13">
-        <v>0.02974630249445198</v>
+        <v>0.08398020279836516</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.4321662393469836</v>
+        <v>0.5721092186962764</v>
       </c>
       <c r="G13">
-        <v>0.2744243978458485</v>
+        <v>0.4369730589884568</v>
       </c>
       <c r="H13">
-        <v>0.4108258421714481</v>
+        <v>0.2208264554079307</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.924322222300134</v>
+        <v>5.954293177070667</v>
       </c>
       <c r="C14">
-        <v>0.5118570096828421</v>
+        <v>1.581493793744357</v>
       </c>
       <c r="D14">
-        <v>0.02929516463519377</v>
+        <v>0.08259040822247954</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.4317078401858296</v>
+        <v>0.5608503567158962</v>
       </c>
       <c r="G14">
-        <v>0.2742247347462268</v>
+        <v>0.4270414366864941</v>
       </c>
       <c r="H14">
-        <v>0.4119024494152086</v>
+        <v>0.2182189634845315</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.904430148518429</v>
+        <v>5.887382031860454</v>
       </c>
       <c r="C15">
-        <v>0.5065909200399119</v>
+        <v>1.564428139738368</v>
       </c>
       <c r="D15">
-        <v>0.02901877874589331</v>
+        <v>0.08174085587254609</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.4314411514865171</v>
+        <v>0.554039479548635</v>
       </c>
       <c r="G15">
-        <v>0.2741153469670081</v>
+        <v>0.4210488905565057</v>
       </c>
       <c r="H15">
-        <v>0.4125721564648046</v>
+        <v>0.2166684072029597</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.790381198118268</v>
+        <v>5.505373041530447</v>
       </c>
       <c r="C16">
-        <v>0.4763789144324164</v>
+        <v>1.466936514489987</v>
       </c>
       <c r="D16">
-        <v>0.02743416462142534</v>
+        <v>0.07689741563181229</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.4301280312677136</v>
+        <v>0.5162633371558982</v>
       </c>
       <c r="G16">
-        <v>0.2736853532468899</v>
+        <v>0.3880393821897172</v>
       </c>
       <c r="H16">
-        <v>0.4165667401346838</v>
+        <v>0.2084690131997036</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.720367359308625</v>
+        <v>5.272197302931204</v>
       </c>
       <c r="C17">
-        <v>0.4578146885784804</v>
+        <v>1.407376576953652</v>
       </c>
       <c r="D17">
-        <v>0.02646140297542132</v>
+        <v>0.07394674070476981</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.4295135368886136</v>
+        <v>0.4941491418570791</v>
       </c>
       <c r="G17">
-        <v>0.2735961034271526</v>
+        <v>0.3689129356459802</v>
       </c>
       <c r="H17">
-        <v>0.4191567325595287</v>
+        <v>0.204021793658427</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.680079842492546</v>
+        <v>5.138473037756171</v>
       </c>
       <c r="C18">
-        <v>0.4471261033194196</v>
+        <v>1.373201315474375</v>
       </c>
       <c r="D18">
-        <v>0.02590166636442603</v>
+        <v>0.07225652687154849</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.429229940611819</v>
+        <v>0.481796784566022</v>
       </c>
       <c r="G18">
-        <v>0.273608464108321</v>
+        <v>0.3583004285454336</v>
       </c>
       <c r="H18">
-        <v>0.4206974995174591</v>
+        <v>0.2016668181056787</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.666436231437274</v>
+        <v>5.0932600765845</v>
       </c>
       <c r="C19">
-        <v>0.4435052677839053</v>
+        <v>1.361643418836593</v>
       </c>
       <c r="D19">
-        <v>0.02571211063713008</v>
+        <v>0.07168538260692969</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.4291458805542732</v>
+        <v>0.477675489517317</v>
       </c>
       <c r="G19">
-        <v>0.2736235464545302</v>
+        <v>0.3547717075486787</v>
       </c>
       <c r="H19">
-        <v>0.4212279319078078</v>
+        <v>0.2009032927895333</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.727822263141434</v>
+        <v>5.296977799273066</v>
       </c>
       <c r="C20">
-        <v>0.4597920169316012</v>
+        <v>1.413708143746589</v>
       </c>
       <c r="D20">
-        <v>0.026564979126114</v>
+        <v>0.07426011320442427</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.4295717138565607</v>
+        <v>0.4964647442871026</v>
       </c>
       <c r="G20">
-        <v>0.2735990019647545</v>
+        <v>0.3709082313468599</v>
       </c>
       <c r="H20">
-        <v>0.4188757337847733</v>
+        <v>0.2044739568424916</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.933860015709854</v>
+        <v>5.98640571706062</v>
       </c>
       <c r="C21">
-        <v>0.5143816332765709</v>
+        <v>1.589682977443488</v>
       </c>
       <c r="D21">
-        <v>0.02942768542513363</v>
+        <v>0.0829982586129745</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.4318395438949452</v>
+        <v>0.5641394013354315</v>
       </c>
       <c r="G21">
-        <v>0.274280687383154</v>
+        <v>0.4299395098202297</v>
       </c>
       <c r="H21">
-        <v>0.4115840858751483</v>
+        <v>0.2189750650825317</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.068353832317882</v>
+        <v>6.441347205100897</v>
       </c>
       <c r="C22">
-        <v>0.5499587420608805</v>
+        <v>1.705624297019369</v>
       </c>
       <c r="D22">
-        <v>0.03129637649145423</v>
+        <v>0.08878511878643991</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.4339515215159366</v>
+        <v>0.6121337899592305</v>
       </c>
       <c r="G22">
-        <v>0.2753028998018721</v>
+        <v>0.4725193149839839</v>
       </c>
       <c r="H22">
-        <v>0.4072770512113806</v>
+        <v>0.2305075636768095</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.996587351909056</v>
+        <v>6.198092676560236</v>
       </c>
       <c r="C23">
-        <v>0.5309798956201348</v>
+        <v>1.643648612811091</v>
       </c>
       <c r="D23">
-        <v>0.03029923680481517</v>
+        <v>0.08568887227032462</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.4327663103649755</v>
+        <v>0.5861482504413686</v>
       </c>
       <c r="G23">
-        <v>0.2747040988571285</v>
+        <v>0.4493999109443934</v>
       </c>
       <c r="H23">
-        <v>0.4095336670924468</v>
+        <v>0.2241516237388765</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.724452012012534</v>
+        <v>5.285773513364347</v>
       </c>
       <c r="C24">
-        <v>0.4588981158648267</v>
+        <v>1.410845437286127</v>
       </c>
       <c r="D24">
-        <v>0.02651815385038958</v>
+        <v>0.07411841843475031</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.4295451950711424</v>
+        <v>0.4954167400831793</v>
       </c>
       <c r="G24">
-        <v>0.2735974933082588</v>
+        <v>0.3700049692794352</v>
       </c>
       <c r="H24">
-        <v>0.4190026121808046</v>
+        <v>0.2042689079843427</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.43024888320673</v>
+        <v>4.316283829744862</v>
       </c>
       <c r="C25">
-        <v>0.3807298380316411</v>
+        <v>1.162773509055057</v>
       </c>
       <c r="D25">
-        <v>0.02243097516476666</v>
+        <v>0.06189667507878482</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.4287362588925561</v>
+        <v>0.4113546290937578</v>
       </c>
       <c r="G25">
-        <v>0.2748333215114087</v>
+        <v>0.298968835993378</v>
       </c>
       <c r="H25">
-        <v>0.4311667942157271</v>
+        <v>0.1904666850469141</v>
       </c>
       <c r="I25">
         <v>0</v>
